--- a/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="11670"/>
+    <workbookView windowWidth="28770" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -137,34 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -178,14 +163,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +207,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -275,7 +267,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,49 +303,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,121 +441,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,21 +494,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,6 +526,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +599,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,52 +751,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1057,10 +1070,13 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O4"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">

--- a/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="17175"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+    WindElemental(1, "风元素"),
+    FireElemental(2, "火元素"),
+    WaterElement(3, "水元素"),
+    ThunderElemental(4, "雷元素"),</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>CId</t>
   </si>
@@ -74,6 +109,18 @@
     <t>weaponType</t>
   </si>
   <si>
+    <t>lvInit</t>
+  </si>
+  <si>
+    <t>initLvMax</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>maxReinforcementEqualOrder</t>
+  </si>
+  <si>
     <t>角色id</t>
   </si>
   <si>
@@ -114,6 +161,18 @@
   </si>
   <si>
     <t>角色可以佩戴的武器类型</t>
+  </si>
+  <si>
+    <t>角色创建出来的初始等级</t>
+  </si>
+  <si>
+    <t>角色创建出来初始最大等级</t>
+  </si>
+  <si>
+    <t>角色元素伤害类型</t>
+  </si>
+  <si>
+    <t>当前强化的星阶 最大</t>
   </si>
   <si>
     <t>int</t>
@@ -141,7 +200,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +351,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1067,18 +1137,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="17" max="17" width="25.375" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,102 +1196,138 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1230,10 +1338,10 @@
         <v>10001</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -1264,10 +1372,23 @@
       </c>
       <c r="O4">
         <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
+++ b/ampieta-game-java-common/src/main/resources/excel/CharacterConfigResource.xlsx
@@ -32,7 +32,34 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0">
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1长柄武器
+2双手剑
+3法器
+4 弓
+5  单手剑
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>CId</t>
   </si>
@@ -76,6 +103,9 @@
     <t>characterName</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
     <t>characterRes</t>
   </si>
   <si>
@@ -121,6 +151,12 @@
     <t>maxReinforcementEqualOrder</t>
   </si>
   <si>
+    <t>bagSideIcon</t>
+  </si>
+  <si>
+    <t>bagClickIcon</t>
+  </si>
+  <si>
     <t>角色id</t>
   </si>
   <si>
@@ -130,6 +166,9 @@
     <t>角色名</t>
   </si>
   <si>
+    <t>性别</t>
+  </si>
+  <si>
     <t>角色资源名</t>
   </si>
   <si>
@@ -175,6 +214,12 @@
     <t>当前强化的星阶 最大</t>
   </si>
   <si>
+    <t>背包里面武器item上面的小头像</t>
+  </si>
+  <si>
+    <t>点击背包武器显示在底部头像</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -187,7 +232,34 @@
     <t>旅行者</t>
   </si>
   <si>
-    <t>lvXingZhe</t>
+    <t>PlayerGirl</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_Side_PlayerGirl</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_PlayerGirl</t>
+  </si>
+  <si>
+    <t>PlayerBoy</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_Side_PlayerBoy</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_PlayerBoy</t>
+  </si>
+  <si>
+    <t>安柏</t>
+  </si>
+  <si>
+    <t>Ambor</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_Side_Ambor</t>
+  </si>
+  <si>
+    <t>UI_AvatarIcon_Ambor</t>
   </si>
 </sst>
 </file>
@@ -1137,20 +1209,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="15" max="15" width="23.375" customWidth="1"/>
-    <col min="17" max="17" width="25.375" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="38.25" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="27.125" customWidth="1"/>
+    <col min="16" max="17" width="23.375" customWidth="1"/>
+    <col min="18" max="18" width="25.375" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="29.375" customWidth="1"/>
+    <col min="21" max="21" width="32.625" customWidth="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,126 +1298,153 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1338,52 +1455,197 @@
         <v>10001</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
         <v>41</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>912</v>
+      </c>
+      <c r="K4">
+        <v>57</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>10004</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>41</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>912</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>57</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>50</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>10004</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="T5">
         <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>10003</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>793</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>10003</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
